--- a/inst/extdata/toyFiles/ROC/non-numeric-weight.xlsx
+++ b/inst/extdata/toyFiles/ROC/non-numeric-weight.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="19">
   <si>
     <t>CaseID</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>Paradigm</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>crossed</t>
+  </si>
+  <si>
+    <t>ROC</t>
   </si>
 </sst>
 </file>
@@ -917,19 +932,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="8.83203125" style="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,8 +959,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -956,8 +982,17 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -970,8 +1005,12 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -984,8 +1023,12 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>70</v>
       </c>
@@ -998,8 +1041,12 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>71</v>
       </c>
@@ -1012,8 +1059,12 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>72</v>
       </c>
@@ -1026,8 +1077,12 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>73</v>
       </c>
@@ -1040,8 +1095,12 @@
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>74</v>
       </c>
@@ -1054,6 +1113,65 @@
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/toyFiles/ROC/non-numeric-weight.xlsx
+++ b/inst/extdata/toyFiles/ROC/non-numeric-weight.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="18">
   <si>
     <t>CaseID</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Paradigm</t>
-  </si>
-  <si>
-    <t>Design</t>
   </si>
   <si>
     <t>0,1</t>
@@ -932,10 +929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -946,7 +943,7 @@
     <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,11 +962,8 @@
       <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -983,16 +977,13 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1006,11 +997,13 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1024,11 +1017,11 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>70</v>
       </c>
@@ -1042,11 +1035,11 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>71</v>
       </c>
@@ -1060,11 +1053,11 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>72</v>
       </c>
@@ -1078,11 +1071,11 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>73</v>
       </c>
@@ -1096,11 +1089,11 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>74</v>
       </c>
@@ -1114,33 +1107,33 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="5:5">

--- a/inst/extdata/toyFiles/ROC/non-numeric-weight.xlsx
+++ b/inst/extdata/toyFiles/ROC/non-numeric-weight.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/ROC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14673BC-8BEC-4E47-9BA9-12CD05863177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="14740" yWindow="460" windowWidth="13260" windowHeight="14380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FP" sheetId="2" r:id="rId1"/>
     <sheet name="TRUTH" sheetId="1" r:id="rId2"/>
     <sheet name="TP" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -80,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,6 +150,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -468,19 +482,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -494,7 +508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -508,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -522,7 +536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -536,7 +550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -550,7 +564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -564,7 +578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -578,7 +592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -592,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -606,7 +620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -620,7 +634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -634,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -648,7 +662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -662,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -676,7 +690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -690,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -704,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -718,7 +732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -732,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -746,7 +760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -760,7 +774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -774,7 +788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -788,7 +802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -802,7 +816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -816,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -830,7 +844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -844,7 +858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -858,7 +872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -886,7 +900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,14 +942,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="8.83203125" style="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
@@ -943,7 +957,7 @@
     <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,7 +977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -983,7 +997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1003,7 +1017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1021,7 +1035,7 @@
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>70</v>
       </c>
@@ -1039,7 +1053,7 @@
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>71</v>
       </c>
@@ -1057,7 +1071,7 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>72</v>
       </c>
@@ -1075,7 +1089,7 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>73</v>
       </c>
@@ -1093,7 +1107,7 @@
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>74</v>
       </c>
@@ -1111,59 +1125,59 @@
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="5:5">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="5:5">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="5:5">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="5:5">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="5:5">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="5:5">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E26" s="2"/>
     </row>
   </sheetData>
@@ -1178,19 +1192,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1207,7 +1221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1224,7 +1238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1258,7 +1272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1275,7 +1289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1292,7 +1306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1309,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +1357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1360,7 +1374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1377,7 +1391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1394,7 +1408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1411,7 +1425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1428,7 +1442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1445,7 +1459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1462,7 +1476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1479,7 +1493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1496,7 +1510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1530,7 +1544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1547,7 +1561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1564,7 +1578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1581,7 +1595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1598,7 +1612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +1629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1649,7 +1663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1666,7 +1680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1683,7 +1697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1700,7 +1714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1717,7 +1731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -1734,7 +1748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1751,7 +1765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -1768,7 +1782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -1785,7 +1799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1802,7 +1816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -1819,7 +1833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
@@ -1836,7 +1850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1853,7 +1867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -1870,7 +1884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
@@ -1887,7 +1901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -1904,7 +1918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -1921,7 +1935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -1938,7 +1952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -1955,7 +1969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -1972,7 +1986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -1989,7 +2003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
@@ -2006,7 +2020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +2037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
@@ -2040,7 +2054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>

--- a/inst/extdata/toyFiles/ROC/non-numeric-weight.xlsx
+++ b/inst/extdata/toyFiles/ROC/non-numeric-weight.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/ROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14673BC-8BEC-4E47-9BA9-12CD05863177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7675C9B8-5CA3-7C41-B220-91A022FC0B9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14740" yWindow="460" windowWidth="13260" windowHeight="14380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,10 +77,10 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>crossed</t>
+    <t>ROC</t>
   </si>
   <si>
-    <t>ROC</t>
+    <t>FCTRL</t>
   </si>
 </sst>
 </file>
@@ -946,7 +946,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -994,7 +994,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1014,7 +1014,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
